--- a/Test Case/Optical CRM/17ERP_TC_Optical CRM_Category Wise Stock Movement.xlsx
+++ b/Test Case/Optical CRM/17ERP_TC_Optical CRM_Category Wise Stock Movement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1QnQ_Test\1Software_TESTING\Optical CRM\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF76944-A43B-4BEB-9ED9-38365D2F72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F14C7-DD8C-4218-BC5B-BDC7B75FB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="228">
   <si>
     <t>VERSION NO</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Updated value should be display</t>
   </si>
   <si>
-    <t>Click the User have records in add purchase and Branch Transfer with approve the transfer records in Leave Module menu</t>
-  </si>
-  <si>
     <t>Preconditions:
 1.User have Optical CRM Application with valid username and password 
 2.User have create, Edit, view and delete access
@@ -763,6 +760,18 @@
   </si>
   <si>
     <t>Perform update the Product Category field value</t>
+  </si>
+  <si>
+    <t>Verify user can able to navigate the Category Wise Stock Movement Details screen without any error message</t>
+  </si>
+  <si>
+    <t>Category Wise Stock Movement Details screen should be display without any error message</t>
+  </si>
+  <si>
+    <t>Verify required error message display or not while click Generate Report button without give search filter value</t>
+  </si>
+  <si>
+    <t>Required error message should not display</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52846507-EB1E-4A4C-89E2-94EBF949BB38}">
-  <dimension ref="A1:FK257"/>
+  <dimension ref="A1:FK261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I196" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,10 +1803,10 @@
         <v>29</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="K5" s="13"/>
     </row>
@@ -2379,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>125</v>
@@ -2480,7 +2489,7 @@
         <v>29</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>125</v>
@@ -2593,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>125</v>
@@ -2743,7 +2752,7 @@
         <v>29</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>125</v>
@@ -2901,7 +2910,7 @@
         <v>29</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>125</v>
@@ -3127,7 +3136,7 @@
         <v>TC_13</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>22</v>
@@ -3170,48 +3179,43 @@
         <v>29</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:167" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:167" ht="57" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
-        <f>SUBTOTAL(3,$E$7:E80)</f>
-        <v>12</v>
-      </c>
-      <c r="B80" s="12" t="s">
+        <f>SUBTOTAL(3,$E$2:E80)</f>
+        <v>14</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="11" t="str">
         <f>CONCATENATE(C80,A80)</f>
-        <v>TC_12</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>164</v>
+        <v>TC_14</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="12"/>
       <c r="I80" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="12"/>
-      <c r="E81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E81" s="12"/>
       <c r="H81" s="12" t="s">
         <v>25</v>
       </c>
@@ -3222,10 +3226,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E82" s="12"/>
       <c r="H82" s="12" t="s">
         <v>28</v>
       </c>
@@ -3236,24 +3238,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E83" s="12"/>
       <c r="H83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="I83" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <f>SUBTOTAL(3,$E$7:E84)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>20</v>
@@ -3263,10 +3263,10 @@
       </c>
       <c r="D84" s="11" t="str">
         <f>CONCATENATE(C84,A84)</f>
-        <v>TC_14</v>
+        <v>TC_13</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>31</v>
@@ -3279,8 +3279,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
+      <c r="E85" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
@@ -3293,7 +3296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -3307,7 +3310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -3315,13 +3318,13 @@
         <v>29</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <f>SUBTOTAL(3,$E$7:E88)</f>
         <v>15</v>
@@ -3337,7 +3340,7 @@
         <v>TC_15</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>31</v>
@@ -3350,7 +3353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -3364,7 +3367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
@@ -3378,268 +3381,274 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I91" s="19" t="s">
+      <c r="I91" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <f>SUBTOTAL(3,$E$7:E92)</f>
+        <v>16</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="11" t="str">
+        <f>CONCATENATE(C92,A92)</f>
+        <v>TC_16</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="12" t="s">
+    </row>
+    <row r="96" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="29"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I92" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="J92" s="29" t="s">
+      <c r="I96" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J96" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A93" s="9">
-        <f>SUBTOTAL(3,$E$2:E93)</f>
-        <v>18</v>
-      </c>
-      <c r="B93" s="9" t="s">
+    <row r="97" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <f>SUBTOTAL(3,$E$2:E97)</f>
+        <v>19</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="11" t="str">
-        <f>CONCATENATE(C93,A93)</f>
-        <v>TC_18</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="12" t="s">
+      <c r="D97" s="11" t="str">
+        <f>CONCATENATE(C97,A97)</f>
+        <v>TC_19</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G97" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K93" s="9"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E94" s="12"/>
-      <c r="H94" s="12" t="s">
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E98" s="12"/>
+      <c r="H98" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I98" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J98" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="K94" s="9"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E95" s="12"/>
-      <c r="H95" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K95" s="9"/>
-    </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I96" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J97" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
-        <f>SUBTOTAL(3,$E$2:E98)</f>
-        <v>19</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="11" t="str">
-        <f>CONCATENATE(C98,A98)</f>
-        <v>TC_19</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E99" s="12"/>
       <c r="H99" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E100" s="12"/>
+    <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K100" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="101" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I101" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J101" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E102" s="12"/>
-      <c r="H102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I102" s="11" t="s">
+    </row>
+    <row r="102" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
+        <f>SUBTOTAL(3,$E$2:E102)</f>
+        <v>20</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="11" t="str">
+        <f>CONCATENATE(C102,A102)</f>
+        <v>TC_20</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
-        <f>SUBTOTAL(3,$E$2:E103)</f>
-        <v>20</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="11" t="str">
-        <f>CONCATENATE(C103,A103)</f>
-        <v>TC_20</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="12" t="s">
+      <c r="F102" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I102" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I103" s="9" t="s">
-        <v>161</v>
+        <v>26</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E105" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <f>SUBTOTAL(3,$E$2:E107)</f>
         <v>21</v>
@@ -3655,7 +3664,7 @@
         <v>TC_21</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>31</v>
@@ -3664,7 +3673,7 @@
         <v>23</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -3692,2293 +3701,2358 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+    <row r="110" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E110" s="12"/>
       <c r="H110" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I110" s="19" t="s">
-        <v>182</v>
+      <c r="I110" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J110" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <f>SUBTOTAL(3,$E$2:E111)</f>
+        <v>22</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="11" t="str">
+        <f>CONCATENATE(C111,A111)</f>
+        <v>TC_22</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I111" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J111" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F111" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E112" s="12"/>
       <c r="H112" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E113" s="12"/>
+      <c r="H113" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E116" s="12"/>
+      <c r="H116" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I112" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="9">
-        <f>SUBTOTAL(3,$E$2:E113)</f>
-        <v>22</v>
-      </c>
-      <c r="B113" s="9" t="s">
+      <c r="I116" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
+        <f>SUBTOTAL(3,$E$2:E117)</f>
+        <v>23</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="11" t="str">
-        <f>CONCATENATE(C113,A113)</f>
-        <v>TC_22</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F113" s="12" t="s">
+      <c r="D117" s="11" t="str">
+        <f>CONCATENATE(C117,A117)</f>
+        <v>TC_23</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="G117" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I113" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E114" s="12"/>
-      <c r="H114" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E115" s="12"/>
-      <c r="H115" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I116" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I117" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I117" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E118" s="12"/>
       <c r="H118" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E119" s="12"/>
+      <c r="H119" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E122" s="12"/>
+      <c r="H122" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I118" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="9">
-        <f>SUBTOTAL(3,$E$2:E119)</f>
+      <c r="I122" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
+        <f>SUBTOTAL(3,$E$2:E123)</f>
+        <v>24</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="11" t="str">
+        <f>CONCATENATE(C123,A123)</f>
+        <v>TC_24</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="11" t="str">
-        <f>CONCATENATE(C119,A119)</f>
-        <v>TC_23</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="I123" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F119" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K119" s="9"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E120" s="12"/>
-      <c r="H120" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E121" s="12"/>
-      <c r="H121" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I122" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E124" s="12"/>
       <c r="H124" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E125" s="12"/>
+      <c r="H125" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E128" s="12"/>
+      <c r="H128" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I124" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="9">
-        <f>SUBTOTAL(3,$E$2:E125)</f>
-        <v>24</v>
-      </c>
-      <c r="B125" s="9" t="s">
+      <c r="I128" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
+        <f>SUBTOTAL(3,$E$2:E129)</f>
+        <v>25</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="11" t="str">
-        <f>CONCATENATE(C125,A125)</f>
-        <v>TC_24</v>
-      </c>
-      <c r="E125" s="11" t="s">
+      <c r="D129" s="11" t="str">
+        <f>CONCATENATE(C129,A129)</f>
+        <v>TC_25</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F125" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K125" s="9"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E126" s="12"/>
-      <c r="H126" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E127" s="12"/>
-      <c r="H127" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I128" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="J128" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I129" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J129" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E130" s="12"/>
       <c r="H130" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E131" s="12"/>
+      <c r="H131" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E134" s="12"/>
+      <c r="H134" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I130" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J130" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="9">
-        <f>SUBTOTAL(3,$E$2:E131)</f>
-        <v>25</v>
-      </c>
-      <c r="B131" s="9" t="s">
+      <c r="I134" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
+        <f>SUBTOTAL(3,$E$2:E135)</f>
+        <v>26</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="11" t="str">
-        <f>CONCATENATE(C131,A131)</f>
-        <v>TC_25</v>
-      </c>
-      <c r="E131" s="11" t="s">
+      <c r="D135" s="11" t="str">
+        <f>CONCATENATE(C135,A135)</f>
+        <v>TC_26</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I135" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F131" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E132" s="12"/>
-      <c r="H132" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I132" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E133" s="12"/>
-      <c r="H133" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J134" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I135" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J135" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K135" s="9"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E136" s="12"/>
       <c r="H136" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E137" s="12"/>
+      <c r="H137" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E140" s="12"/>
+      <c r="H140" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I136" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J136" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="9">
-        <f>SUBTOTAL(3,$E$2:E137)</f>
-        <v>26</v>
-      </c>
-      <c r="B137" s="9" t="s">
+      <c r="I140" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
+        <f>SUBTOTAL(3,$E$2:E141)</f>
+        <v>27</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="11" t="str">
-        <f>CONCATENATE(C137,A137)</f>
-        <v>TC_26</v>
-      </c>
-      <c r="E137" s="11" t="s">
+      <c r="D141" s="11" t="str">
+        <f>CONCATENATE(C141,A141)</f>
+        <v>TC_27</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I141" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F137" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K137" s="9"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E138" s="12"/>
-      <c r="H138" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J138" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E139" s="12"/>
-      <c r="H139" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I140" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I141" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J141" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E142" s="12"/>
       <c r="H142" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E143" s="12"/>
+      <c r="H143" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E146" s="12"/>
+      <c r="H146" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I142" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="9">
-        <f>SUBTOTAL(3,$E$2:E143)</f>
-        <v>27</v>
-      </c>
-      <c r="B143" s="9" t="s">
+      <c r="I146" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
+        <f>SUBTOTAL(3,$E$2:E147)</f>
+        <v>28</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D143" s="11" t="str">
-        <f>CONCATENATE(C143,A143)</f>
-        <v>TC_27</v>
-      </c>
-      <c r="E143" s="11" t="s">
+      <c r="D147" s="11" t="str">
+        <f>CONCATENATE(C147,A147)</f>
+        <v>TC_28</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F143" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K143" s="9"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E144" s="12"/>
-      <c r="H144" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E145" s="12"/>
-      <c r="H145" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I146" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I147" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J147" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E148" s="12"/>
       <c r="H148" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E149" s="12"/>
+      <c r="H149" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E152" s="12"/>
+      <c r="H152" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I148" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="9">
-        <f>SUBTOTAL(3,$E$2:E149)</f>
-        <v>28</v>
-      </c>
-      <c r="B149" s="9" t="s">
+      <c r="I152" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <f>SUBTOTAL(3,$E$2:E153)</f>
+        <v>29</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D149" s="11" t="str">
-        <f>CONCATENATE(C149,A149)</f>
-        <v>TC_28</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F149" s="12" t="s">
+      <c r="D153" s="11" t="str">
+        <f>CONCATENATE(C153,A153)</f>
+        <v>TC_29</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F153" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G149" s="12" t="s">
+      <c r="G153" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I149" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K149" s="9"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E150" s="12"/>
-      <c r="H150" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E151" s="12"/>
-      <c r="H151" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I152" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J152" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I153" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I153" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E154" s="12"/>
       <c r="H154" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E155" s="12"/>
+      <c r="H155" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E158" s="12"/>
+      <c r="H158" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I154" s="11" t="s">
+      <c r="I158" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A159" s="9">
+        <f>SUBTOTAL(3,$E$2:E159)</f>
+        <v>30</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="11" t="str">
+        <f>CONCATENATE(C159,A159)</f>
+        <v>TC_30</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J154" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="9">
-        <f>SUBTOTAL(3,$E$2:E155)</f>
+      <c r="F159" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E160" s="12"/>
+      <c r="H160" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E161" s="12"/>
+      <c r="H161" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="I162" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J164" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A165" s="9">
+        <f>SUBTOTAL(3,$E$2:E165)</f>
+        <v>31</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D155" s="11" t="str">
-        <f>CONCATENATE(C155,A155)</f>
-        <v>TC_29</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" s="12" t="s">
+      <c r="D165" s="11" t="str">
+        <f>CONCATENATE(C165,A165)</f>
+        <v>TC_31</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I155" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="K155" s="9"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E156" s="12"/>
-      <c r="H156" s="12" t="s">
+      <c r="I165" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K165" s="9"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E166" s="12"/>
+      <c r="H166" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I156" s="9" t="s">
+      <c r="I166" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J156" s="9" t="s">
+      <c r="J166" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E157" s="12"/>
-      <c r="H157" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I158" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J158" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I159" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J159" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I160" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="J160" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A161" s="9">
-        <f>SUBTOTAL(3,$E$2:E161)</f>
-        <v>30</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="11" t="str">
-        <f>CONCATENATE(C161,A161)</f>
-        <v>TC_30</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I161" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E162" s="12"/>
-      <c r="H162" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E163" s="12"/>
-      <c r="H163" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E164" s="12"/>
-      <c r="H164" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J164" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E165" s="12"/>
-      <c r="H165" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J165" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="9">
-        <f>SUBTOTAL(3,$E$2:E166)</f>
-        <v>31</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="11" t="str">
-        <f>CONCATENATE(C166,A166)</f>
-        <v>TC_31</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K166" s="9"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E167" s="12"/>
       <c r="H167" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E168" s="12"/>
       <c r="H168" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J168" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E169" s="12"/>
       <c r="H169" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E170" s="12"/>
-      <c r="H170" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I170" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A170" s="9">
+        <f>SUBTOTAL(3,$E$2:E170)</f>
+        <v>32</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="11" t="str">
+        <f>CONCATENATE(C170,A170)</f>
+        <v>TC_32</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J170" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="9">
-        <f>SUBTOTAL(3,$E$2:E171)</f>
-        <v>32</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D171" s="11" t="str">
-        <f>CONCATENATE(C171,A171)</f>
-        <v>TC_32</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F171" s="12" t="s">
+      <c r="F170" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G171" s="12" t="s">
+      <c r="G170" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I170" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E171" s="12"/>
+      <c r="H171" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I171" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K171" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E172" s="12"/>
       <c r="H172" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E173" s="12"/>
       <c r="H173" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E174" s="12"/>
       <c r="H174" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I174" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A175" s="9">
+        <f>SUBTOTAL(3,$E$2:E175)</f>
+        <v>33</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" s="11" t="str">
+        <f>CONCATENATE(C175,A175)</f>
+        <v>TC_33</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I175" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J174" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E175" s="12"/>
-      <c r="H175" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J175" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A176" s="9">
-        <f>SUBTOTAL(3,$E$2:E176)</f>
-        <v>33</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="11" t="str">
-        <f>CONCATENATE(C176,A176)</f>
-        <v>TC_33</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="12" t="s">
-        <v>23</v>
+      <c r="K175" s="9"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E176" s="12"/>
+      <c r="H176" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K176" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E177" s="12"/>
       <c r="H177" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E178" s="12"/>
       <c r="H178" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I178" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J178" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E179" s="12"/>
       <c r="H179" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E180" s="12"/>
-      <c r="H180" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I180" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A180" s="9">
+        <f>SUBTOTAL(3,$E$2:E180)</f>
+        <v>34</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" s="11" t="str">
+        <f>CONCATENATE(C180,A180)</f>
+        <v>TC_34</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J180" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A181" s="9">
-        <f>SUBTOTAL(3,$E$2:E181)</f>
-        <v>34</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="11" t="str">
-        <f>CONCATENATE(C181,A181)</f>
-        <v>TC_34</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F181" s="12" t="s">
+      <c r="F180" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G181" s="12" t="s">
+      <c r="G180" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I180" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E181" s="12"/>
+      <c r="H181" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I181" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K181" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E182" s="12"/>
       <c r="H182" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E183" s="12"/>
       <c r="H183" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I183" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E184" s="12"/>
       <c r="H184" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E185" s="12"/>
-      <c r="H185" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J185" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A186" s="9">
-        <f>SUBTOTAL(3,$E$2:E186)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A185" s="9">
+        <f>SUBTOTAL(3,$E$2:E185)</f>
         <v>35</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C185" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D186" s="11" t="str">
-        <f>CONCATENATE(C186,A186)</f>
+      <c r="D185" s="11" t="str">
+        <f>CONCATENATE(C185,A185)</f>
         <v>TC_35</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F186" s="12" t="s">
+      <c r="E185" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F185" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G186" s="12" t="s">
+      <c r="G185" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I185" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K185" s="9"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E186" s="12"/>
+      <c r="H186" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I186" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K186" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E187" s="12"/>
       <c r="H187" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E188" s="12"/>
       <c r="H188" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I188" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J188" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E189" s="12"/>
       <c r="H189" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="J189" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E190" s="12"/>
-      <c r="H190" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I190" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A190" s="9">
+        <f>SUBTOTAL(3,$E$2:E190)</f>
+        <v>36</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="11" t="str">
+        <f>CONCATENATE(C190,A190)</f>
+        <v>TC_36</v>
+      </c>
+      <c r="E190" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J190" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A191" s="9">
-        <f>SUBTOTAL(3,$E$2:E191)</f>
-        <v>36</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D191" s="11" t="str">
-        <f>CONCATENATE(C191,A191)</f>
-        <v>TC_36</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F191" s="12" t="s">
+      <c r="F190" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G191" s="12" t="s">
+      <c r="G190" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I190" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K190" s="9"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E191" s="12"/>
+      <c r="H191" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I191" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K191" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E192" s="12"/>
       <c r="H192" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E193" s="12"/>
       <c r="H193" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J193" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="E194" s="12"/>
       <c r="H194" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I194" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A195" s="9">
+        <f>SUBTOTAL(3,$E$2:E195)</f>
+        <v>37</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="11" t="str">
+        <f>CONCATENATE(C195,A195)</f>
+        <v>TC_37</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K195" s="9"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E196" s="12"/>
+      <c r="H196" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J196" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E197" s="12"/>
+      <c r="H197" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E198" s="12"/>
+      <c r="H198" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I194" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J194" s="11" t="s">
+      <c r="I198" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J198" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E195" s="12"/>
-      <c r="H195" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I195" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J195" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A196" s="9">
-        <f>SUBTOTAL(3,$E$2:E196)</f>
-        <v>37</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="11" t="str">
-        <f>CONCATENATE(C196,A196)</f>
-        <v>TC_37</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F196" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I196" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L196" s="23"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H197" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L197" s="23"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H198" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J198" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L198" s="23"/>
     </row>
     <row r="199" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E199" s="12"/>
       <c r="H199" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H200" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I200" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J200" s="11" t="s">
-        <v>221</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A200" s="9">
+        <f>SUBTOTAL(3,$E$2:E200)</f>
+        <v>38</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="11" t="str">
+        <f>CONCATENATE(C200,A200)</f>
+        <v>TC_38</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="L200" s="23"/>
     </row>
-    <row r="201" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A201" s="9">
-        <f>SUBTOTAL(3,$E$2:E201)</f>
-        <v>38</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D201" s="11" t="str">
-        <f>CONCATENATE(C201,A201)</f>
-        <v>TC_38</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F201" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" s="12" t="s">
-        <v>23</v>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H201" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="L201" s="23"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H202" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J202" s="9" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="L202" s="23"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E203" s="12"/>
       <c r="H203" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I203" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L203" s="23"/>
-    </row>
-    <row r="204" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E204" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="I203" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H204" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J204" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H205" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I205" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J205" s="11" t="s">
-        <v>103</v>
+      <c r="L204" s="23"/>
+    </row>
+    <row r="205" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A205" s="9">
+        <f>SUBTOTAL(3,$E$2:E205)</f>
+        <v>39</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" s="11" t="str">
+        <f>CONCATENATE(C205,A205)</f>
+        <v>TC_39</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="L205" s="23"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H206" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I206" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J206" s="11" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J206" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="L206" s="23"/>
     </row>
-    <row r="207" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A207" s="9">
-        <f>SUBTOTAL(3,$E$2:E207)</f>
-        <v>39</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D207" s="11" t="str">
-        <f>CONCATENATE(C207,A207)</f>
-        <v>TC_39</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F207" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" s="12" t="s">
-        <v>23</v>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H207" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="L207" s="23"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E208" s="12"/>
       <c r="H208" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I208" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J208" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L208" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="I208" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J208" s="11" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H209" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I209" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J209" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L209" s="23"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H210" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L210" s="23"/>
+    </row>
+    <row r="211" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A211" s="9">
+        <f>SUBTOTAL(3,$E$2:E211)</f>
+        <v>40</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="11" t="str">
+        <f>CONCATENATE(C211,A211)</f>
+        <v>TC_40</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I211" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L211" s="23"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H212" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L212" s="23"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H213" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I209" s="9" t="s">
+      <c r="I213" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J209" s="9" t="s">
+      <c r="J213" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L209" s="23"/>
-    </row>
-    <row r="210" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E210" s="12"/>
-      <c r="H210" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I210" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J210" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H211" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J211" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L211" s="23"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="30"/>
-      <c r="B212" s="30"/>
-      <c r="C212" s="30"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="30"/>
-      <c r="G212" s="30"/>
-      <c r="H212" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I212" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J212" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="L212" s="23"/>
-    </row>
-    <row r="213" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A213" s="9">
-        <f>SUBTOTAL(3,$E$2:E213)</f>
-        <v>40</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D213" s="11" t="str">
-        <f>CONCATENATE(C213,A213)</f>
-        <v>TC_40</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F213" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I213" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L213" s="23"/>
+    </row>
+    <row r="214" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E214" s="12"/>
       <c r="H214" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H215" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I215" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J215" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L215" s="23"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="30"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I216" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J216" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L216" s="23"/>
+    </row>
+    <row r="217" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A217" s="9">
+        <f>SUBTOTAL(3,$E$2:E217)</f>
+        <v>41</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" s="11" t="str">
+        <f>CONCATENATE(C217,A217)</f>
+        <v>TC_41</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E218" s="12"/>
+      <c r="H218" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I214" s="9" t="s">
+      <c r="I218" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J214" s="9" t="s">
+      <c r="J218" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E215" s="12"/>
-      <c r="H215" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I215" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J215" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E216" s="12"/>
-      <c r="H216" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I216" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J216" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E217" s="12"/>
-      <c r="H217" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I217" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J217" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A218" s="9">
-        <f>SUBTOTAL(3,$E$2:E218)</f>
-        <v>41</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D218" s="11" t="str">
-        <f>CONCATENATE(C218,A218)</f>
-        <v>TC_41</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F218" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I218" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K218" s="9"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E219" s="12"/>
       <c r="H219" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E220" s="12"/>
       <c r="H220" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I220" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J220" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E221" s="12"/>
       <c r="H221" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I221" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J221" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A222" s="9">
+        <f>SUBTOTAL(3,$E$2:E222)</f>
+        <v>42</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="11" t="str">
+        <f>CONCATENATE(C222,A222)</f>
+        <v>TC_42</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K222" s="9"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E223" s="12"/>
+      <c r="H223" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I223" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E224" s="12"/>
+      <c r="H224" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E225" s="12"/>
+      <c r="H225" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I221" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J221" s="11" t="s">
+      <c r="I225" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J225" s="11" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E222" s="12"/>
-      <c r="H222" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I222" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J222" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A223" s="9">
-        <f>SUBTOTAL(3,$E$2:E223)</f>
-        <v>42</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="11" t="str">
-        <f>CONCATENATE(C223,A223)</f>
-        <v>TC_42</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F223" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G223" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I223" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H224" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I224" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J224" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H225" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I225" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E226" s="12"/>
       <c r="H226" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="J226" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E227" s="12"/>
-      <c r="H227" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I227" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A227" s="9">
+        <f>SUBTOTAL(3,$E$2:E227)</f>
+        <v>43</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="11" t="str">
+        <f>CONCATENATE(C227,A227)</f>
+        <v>TC_43</v>
+      </c>
+      <c r="E227" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J227" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A228" s="9">
-        <f>SUBTOTAL(3,$E$2:E228)</f>
-        <v>43</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D228" s="11" t="str">
-        <f>CONCATENATE(C228,A228)</f>
-        <v>TC_43</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F228" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G228" s="12" t="s">
+      <c r="F227" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G227" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="I227" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H228" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I228" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="K228" s="9"/>
-      <c r="L228" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H229" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E230" s="12"/>
+      <c r="H230" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E231" s="12"/>
+      <c r="H231" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I231" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J231" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A232" s="9">
+        <f>SUBTOTAL(3,$E$2:E232)</f>
+        <v>44</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" s="11" t="str">
+        <f>CONCATENATE(C232,A232)</f>
+        <v>TC_44</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K232" s="9"/>
+      <c r="L232" s="23"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H233" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I229" s="9" t="s">
+      <c r="I233" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J229" s="9" t="s">
+      <c r="J233" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L229" s="23"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="9"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="11"/>
-      <c r="H230" s="12" t="s">
+      <c r="L233" s="23"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="9"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="11"/>
+      <c r="H234" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I230" s="9" t="s">
+      <c r="I234" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J230" s="9" t="s">
+      <c r="J234" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L230" s="23"/>
-    </row>
-    <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H231" s="12" t="s">
+      <c r="L234" s="23"/>
+    </row>
+    <row r="235" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H235" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I231" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J231" s="11" t="s">
+      <c r="I235" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J235" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L231" s="23"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H232" s="12" t="s">
+      <c r="L235" s="23"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H236" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I232" s="11" t="s">
+      <c r="I236" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J232" s="11" t="s">
+      <c r="J236" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L232" s="23"/>
-    </row>
-    <row r="233" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A233" s="9">
-        <f>SUBTOTAL(3,$E$2:E233)</f>
-        <v>44</v>
-      </c>
-      <c r="B233" s="12" t="s">
+      <c r="L236" s="23"/>
+    </row>
+    <row r="237" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A237" s="9">
+        <f>SUBTOTAL(3,$E$2:E237)</f>
+        <v>45</v>
+      </c>
+      <c r="B237" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C237" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D233" s="11" t="str">
-        <f>CONCATENATE(C233,A233)</f>
-        <v>TC_44</v>
-      </c>
-      <c r="E233" s="11" t="s">
+      <c r="D237" s="11" t="str">
+        <f>CONCATENATE(C237,A237)</f>
+        <v>TC_45</v>
+      </c>
+      <c r="E237" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F233" s="12" t="s">
+      <c r="F237" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G233" s="12" t="s">
+      <c r="G237" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I233" s="9" t="s">
+      <c r="I237" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L233" s="23"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H234" s="12" t="s">
+      <c r="L237" s="23"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H238" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I234" s="9" t="s">
+      <c r="I238" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J234" s="9" t="s">
+      <c r="J238" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="L234" s="23"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H235" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J235" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L235" s="23"/>
-    </row>
-    <row r="236" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H236" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I236" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J236" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L236" s="23"/>
-    </row>
-    <row r="237" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E237" s="12"/>
-      <c r="H237" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I237" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J237" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L237" s="23"/>
-    </row>
-    <row r="238" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A238" s="9">
-        <f>SUBTOTAL(3,$E$2:E238)</f>
-        <v>45</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" s="11" t="str">
-        <f>CONCATENATE(C238,A238)</f>
-        <v>TC_45</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F238" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G238" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I238" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="L238" s="23"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H239" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L239" s="23"/>
+    </row>
+    <row r="240" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H240" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I240" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J240" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L240" s="23"/>
+    </row>
+    <row r="241" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E241" s="12"/>
+      <c r="H241" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I241" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J241" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L241" s="23"/>
+    </row>
+    <row r="242" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A242" s="9">
+        <f>SUBTOTAL(3,$E$2:E242)</f>
+        <v>46</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="11" t="str">
+        <f>CONCATENATE(C242,A242)</f>
+        <v>TC_46</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I242" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L242" s="23"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H243" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I239" s="9" t="s">
+      <c r="I243" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J239" s="9" t="s">
+      <c r="J243" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="L239" s="23"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H240" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J240" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L240" s="23"/>
-    </row>
-    <row r="241" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H241" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I241" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J241" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L241" s="23"/>
-    </row>
-    <row r="242" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E242" s="12"/>
-      <c r="H242" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I242" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J242" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L242" s="23"/>
-    </row>
-    <row r="243" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A243" s="9">
-        <f>SUBTOTAL(3,$E$2:E243)</f>
-        <v>46</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" s="11" t="str">
-        <f>CONCATENATE(C243,A243)</f>
-        <v>TC_46</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F243" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="L243" s="23"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H244" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J244" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L244" s="23"/>
+    </row>
+    <row r="245" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H245" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I245" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J245" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L245" s="23"/>
+    </row>
+    <row r="246" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E246" s="12"/>
+      <c r="H246" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I246" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J246" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L246" s="23"/>
+    </row>
+    <row r="247" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A247" s="9">
+        <f>SUBTOTAL(3,$E$2:E247)</f>
+        <v>47</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="11" t="str">
+        <f>CONCATENATE(C247,A247)</f>
+        <v>TC_47</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L247" s="23"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H248" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I244" s="9" t="s">
+      <c r="I248" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J244" s="9" t="s">
+      <c r="J248" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="L244" s="23"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H245" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I245" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J245" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L245" s="23"/>
-    </row>
-    <row r="246" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H246" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I246" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J246" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L246" s="23"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H247" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I247" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J247" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L247" s="23"/>
-    </row>
-    <row r="248" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A248" s="9">
-        <f>SUBTOTAL(3,$E$2:E248)</f>
-        <v>47</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D248" s="11" t="str">
-        <f>CONCATENATE(C248,A248)</f>
-        <v>TC_47</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F248" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G248" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="L248" s="23"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H249" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L249" s="23"/>
+    </row>
+    <row r="250" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H250" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I250" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L250" s="23"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H251" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I251" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J251" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L251" s="23"/>
+    </row>
+    <row r="252" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A252" s="9">
+        <f>SUBTOTAL(3,$E$2:E252)</f>
+        <v>48</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="11" t="str">
+        <f>CONCATENATE(C252,A252)</f>
+        <v>TC_48</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L252" s="23"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H253" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I249" s="9" t="s">
+      <c r="I253" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J249" s="9" t="s">
+      <c r="J253" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="L249" s="23"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H250" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J250" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L250" s="23"/>
-    </row>
-    <row r="251" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H251" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I251" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J251" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L251" s="23"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E252" s="12"/>
-      <c r="H252" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I252" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J252" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L252" s="23"/>
-    </row>
-    <row r="253" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A253" s="9">
-        <f>SUBTOTAL(3,$E$2:E253)</f>
-        <v>48</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D253" s="11" t="str">
-        <f>CONCATENATE(C253,A253)</f>
-        <v>TC_48</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F253" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="L253" s="23"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H254" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J254" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L254" s="23"/>
+    </row>
+    <row r="255" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H255" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J255" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L255" s="23"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E256" s="12"/>
+      <c r="H256" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J256" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L256" s="23"/>
+    </row>
+    <row r="257" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A257" s="9">
+        <f>SUBTOTAL(3,$E$2:E257)</f>
+        <v>49</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="11" t="str">
+        <f>CONCATENATE(C257,A257)</f>
+        <v>TC_49</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L257" s="23"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H258" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I254" s="9" t="s">
+      <c r="I258" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J254" s="9" t="s">
+      <c r="J258" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L254" s="23"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H255" s="12" t="s">
+      <c r="L258" s="23"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H259" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I255" s="9" t="s">
+      <c r="I259" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J255" s="9" t="s">
+      <c r="J259" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L255" s="23"/>
-    </row>
-    <row r="256" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H256" s="12" t="s">
+      <c r="L259" s="23"/>
+    </row>
+    <row r="260" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H260" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I256" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J256" s="11" t="s">
+      <c r="I260" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J260" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L256" s="23"/>
-    </row>
-    <row r="257" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E257" s="12"/>
-      <c r="H257" s="12" t="s">
+      <c r="L260" s="23"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E261" s="12"/>
+      <c r="H261" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I257" s="11" t="s">
+      <c r="I261" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J257" s="11" t="s">
+      <c r="J261" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L257" s="23"/>
+      <c r="L261" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
